--- a/果子上课记录.xlsx
+++ b/果子上课记录.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FA8CD3-D313-4C97-8BB8-3DFB6DF8DB6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="书法" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,6 +438,22 @@
   <si>
     <r>
       <t>9-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9-22</t>
     </r>
     <r>
       <rPr>
@@ -449,8 +471,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,11 +569,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,11 +581,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -605,7 +635,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,9 +667,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,6 +719,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -846,19 +912,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -866,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -874,7 +940,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -882,7 +948,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -890,7 +956,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -898,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -906,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -914,7 +980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -922,7 +988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -930,7 +996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -938,7 +1004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -946,7 +1012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -954,7 +1020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -962,7 +1028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -970,7 +1036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -978,7 +1044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -986,7 +1052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -994,36 +1060,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" spans="4:5">
+    <row r="20" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
@@ -1035,20 +1101,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.08203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.58203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1064,7 +1130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1072,7 +1138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1080,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1088,7 +1154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1096,7 +1162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1104,7 +1170,7 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1112,7 +1178,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1120,7 +1186,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1128,7 +1194,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1136,7 +1202,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1144,7 +1210,7 @@
         <v>12.22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1152,47 +1218,47 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1"/>
+    <row r="19" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:2" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1201,21 +1267,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1">
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1234,7 +1300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1">
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1242,27 +1308,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1">
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1270,7 +1336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1">
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1278,7 +1344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1">
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1286,7 +1352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1">
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1294,7 +1360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1">
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1302,7 +1368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1310,7 +1376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1">
+    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1318,7 +1384,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1">
+    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1326,51 +1392,53 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1">
+    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1">
+    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="24" customHeight="1">
+    <row r="17" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="24" customHeight="1">
+    <row r="18" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" ht="24" customHeight="1">
+    <row r="19" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="24" customHeight="1">
+    <row r="20" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="24" customHeight="1">
+    <row r="21" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>

--- a/果子上课记录.xlsx
+++ b/果子上课记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FA8CD3-D313-4C97-8BB8-3DFB6DF8DB6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF851A29-4F05-4782-9A7F-9F50B8503444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,38 @@
         <charset val="134"/>
       </rPr>
       <t>下午</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10-13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请假</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1271,7 +1303,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1407,12 +1439,17 @@
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">

--- a/果子上课记录.xlsx
+++ b/果子上课记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF851A29-4F05-4782-9A7F-9F50B8503444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CC1D5C-4866-4946-9E95-C212D2281527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,6 +496,22 @@
         <charset val="134"/>
       </rPr>
       <t>请假</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1303,7 +1319,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1455,7 +1471,9 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">

--- a/果子上课记录.xlsx
+++ b/果子上课记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CC1D5C-4866-4946-9E95-C212D2281527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FBBA5-218A-4AA3-8F13-9BB71DD71DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,6 +502,22 @@
   <si>
     <r>
       <t>11-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11-24</t>
     </r>
     <r>
       <rPr>
@@ -1319,7 +1335,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1479,7 +1495,9 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
